--- a/Bestellung_Partsforstudents.xlsx
+++ b/Bestellung_Partsforstudents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A76E34A-BB2E-428D-AA3C-42928B3ED294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2666FA-3D23-45BA-935D-814734CEBF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{653E7662-EE17-4F48-B458-2A550F63096F}"/>
   </bookViews>
@@ -484,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -538,8 +538,7 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -857,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190216A1-E49D-4261-B9C5-C63CD3DB8C33}">
   <dimension ref="B1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +870,7 @@
     <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="64.28515625" customWidth="1"/>
+    <col min="11" max="11" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1671,8 +1670,10 @@
         <f>SUM(I6:I27)</f>
         <v>2850.0000000000005</v>
       </c>
-      <c r="J29" s="54"/>
-      <c r="K29" s="53"/>
+      <c r="J29" s="53">
+        <f>AVERAGE(J6:J12,J14:J27)</f>
+        <v>0.35443207340344102</v>
+      </c>
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
